--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/127.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/127.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1671697820747486</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.246357416435378</v>
+        <v>-1.25609739724983</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08696096835850724</v>
+        <v>-0.0806944419523271</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1712758255123028</v>
+        <v>-0.1765027976777559</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1529824196741394</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.328539143328356</v>
+        <v>-1.345309255700533</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1935926605818422</v>
+        <v>-0.1868238776323895</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1748660837678473</v>
+        <v>-0.1809676247397547</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1429043536769804</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.44829666788896</v>
+        <v>-1.473554039813589</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1999672305467496</v>
+        <v>-0.1883598482240255</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1845345222258447</v>
+        <v>-0.1960995631539325</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1386988460780539</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.613834000340006</v>
+        <v>-1.638149641246</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2132288473564733</v>
+        <v>-0.203799856785385</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.169513547466576</v>
+        <v>-0.181266934598391</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1373568325800435</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.728549978842703</v>
+        <v>-1.748473795091243</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2210328044023803</v>
+        <v>-0.2134858158204733</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1852353453094809</v>
+        <v>-0.1910667773845702</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1364802968763607</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.574992340977562</v>
+        <v>-1.597735510089647</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1380699517807662</v>
+        <v>-0.122193388840225</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1686783999585762</v>
+        <v>-0.1765188582067559</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1336245043603029</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.391097823879521</v>
+        <v>-1.406317365179153</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06388198818551344</v>
+        <v>-0.05073863527115333</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1573688674463974</v>
+        <v>-0.1622804692242143</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1276408239475719</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.168666797470035</v>
+        <v>-1.194195738339574</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05427532366745484</v>
+        <v>0.07188058354763194</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1523959436487624</v>
+        <v>-0.1552941391092162</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1170515664249032</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8031773390171331</v>
+        <v>-0.8340967774383066</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1429805454306128</v>
+        <v>0.1569196245545182</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1396380434304022</v>
+        <v>-0.1380699517807662</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09961470857123043</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4461079779045017</v>
+        <v>-0.4812615557893105</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1403320181937045</v>
+        <v>0.1490412050559748</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07433155237214699</v>
+        <v>-0.07249335182569294</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07290818825310402</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07984660593162979</v>
+        <v>0.05176404095109188</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1274105925891625</v>
+        <v>0.1302095047794344</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04205472114654903</v>
+        <v>0.04569316098909351</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0350886529183374</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5859824969817666</v>
+        <v>0.5480008059448678</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06271878177717985</v>
+        <v>0.0712367023395412</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1853277802593288</v>
+        <v>0.1884216221639643</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.01398399576336695</v>
       </c>
       <c r="E14" t="n">
-        <v>1.158081900731068</v>
+        <v>1.120917836625078</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.05058095007733519</v>
+        <v>-0.05290096649378911</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2912659496394821</v>
+        <v>0.2929012035012998</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.07239864422097582</v>
       </c>
       <c r="E15" t="n">
-        <v>1.797980097629805</v>
+        <v>1.756714758436452</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1987437102465681</v>
+        <v>-0.1990736811151135</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5050841523606975</v>
+        <v>0.5111418918898776</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1378274401936978</v>
       </c>
       <c r="E16" t="n">
-        <v>2.468253135011806</v>
+        <v>2.426672425430818</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3571676883987074</v>
+        <v>-0.3513128955541635</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6404641914940247</v>
+        <v>0.6412088160203882</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2076963654278241</v>
       </c>
       <c r="E17" t="n">
-        <v>3.119644830482177</v>
+        <v>3.08406053841055</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4937464270146708</v>
+        <v>-0.4874448594543088</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7909323675988025</v>
+        <v>0.7890226246958939</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.28143773210038</v>
       </c>
       <c r="E18" t="n">
-        <v>3.722400863996288</v>
+        <v>3.685685034654207</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6319136979535427</v>
+        <v>-0.6309544463578157</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9584290845878484</v>
+        <v>0.9605578347043933</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3597009780269624</v>
       </c>
       <c r="E19" t="n">
-        <v>4.231557594546515</v>
+        <v>4.192308581766707</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8049644378804054</v>
+        <v>-0.8043088762875873</v>
       </c>
       <c r="G19" t="n">
-        <v>1.07904949757018</v>
+        <v>1.076492953362999</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.443779906256175</v>
       </c>
       <c r="E20" t="n">
-        <v>4.713433326518113</v>
+        <v>4.668933980803398</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9792080370975403</v>
+        <v>-0.98079802946854</v>
       </c>
       <c r="G20" t="n">
-        <v>1.245350435172771</v>
+        <v>1.247642710675498</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5338024071787615</v>
       </c>
       <c r="E21" t="n">
-        <v>5.206332421576072</v>
+        <v>5.167950677362263</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.176897088558487</v>
+        <v>-1.181113707445032</v>
       </c>
       <c r="G21" t="n">
-        <v>1.408377944955546</v>
+        <v>1.40758075869791</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6274937426163752</v>
       </c>
       <c r="E22" t="n">
-        <v>5.591662473536331</v>
+        <v>5.556977571088704</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.358474509336257</v>
+        <v>-1.365768909598437</v>
       </c>
       <c r="G22" t="n">
-        <v>1.527157237295241</v>
+        <v>1.528091668073423</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7195319230140635</v>
       </c>
       <c r="E23" t="n">
-        <v>5.849153634752808</v>
+        <v>5.809602392018182</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.556627856090113</v>
+        <v>-1.566548882867837</v>
       </c>
       <c r="G23" t="n">
-        <v>1.67675960488211</v>
+        <v>1.675974099009201</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8015144206685645</v>
       </c>
       <c r="E24" t="n">
-        <v>6.135825317114185</v>
+        <v>6.094738103787924</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.702312914649073</v>
+        <v>-1.711820747817071</v>
       </c>
       <c r="G24" t="n">
-        <v>1.826832107954252</v>
+        <v>1.83021941952516</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8650023481313112</v>
       </c>
       <c r="E25" t="n">
-        <v>6.27303333645733</v>
+        <v>6.219595576330072</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.868595601650529</v>
+        <v>-1.882765368372798</v>
       </c>
       <c r="G25" t="n">
-        <v>1.866381890640787</v>
+        <v>1.860436574814606</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9033577035133998</v>
       </c>
       <c r="E26" t="n">
-        <v>6.331273194755587</v>
+        <v>6.261161685430152</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.919944762983742</v>
+        <v>-1.926039003715195</v>
       </c>
       <c r="G26" t="n">
-        <v>1.870743054288331</v>
+        <v>1.859363439467788</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9152934234812286</v>
       </c>
       <c r="E27" t="n">
-        <v>6.344908583876584</v>
+        <v>6.265340343066333</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.988245082652406</v>
+        <v>-1.988647325901451</v>
       </c>
       <c r="G27" t="n">
-        <v>1.966386424579487</v>
+        <v>1.952584589976127</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9025354915244514</v>
       </c>
       <c r="E28" t="n">
-        <v>6.434327769156196</v>
+        <v>6.349992471329128</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.067866615217975</v>
+        <v>-2.06688619292493</v>
       </c>
       <c r="G28" t="n">
-        <v>2.005746401014203</v>
+        <v>1.988733920658935</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8694285425753433</v>
       </c>
       <c r="E29" t="n">
-        <v>6.332174044427679</v>
+        <v>6.242914004389974</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.133704563781321</v>
+        <v>-2.131586034001413</v>
       </c>
       <c r="G29" t="n">
-        <v>2.012331217904202</v>
+        <v>1.997123356989297</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8213656236287635</v>
       </c>
       <c r="E30" t="n">
-        <v>6.289971354359962</v>
+        <v>6.202745161312895</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.237143130829839</v>
+        <v>-2.240557453290429</v>
       </c>
       <c r="G30" t="n">
-        <v>2.039031117342649</v>
+        <v>2.026016248660289</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7626804670878669</v>
       </c>
       <c r="E31" t="n">
-        <v>6.186662731591535</v>
+        <v>6.091372692938379</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.281893604816191</v>
+        <v>-2.296571468274096</v>
       </c>
       <c r="G31" t="n">
-        <v>1.975976020440575</v>
+        <v>1.957702058534762</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6971930196100875</v>
       </c>
       <c r="E32" t="n">
-        <v>5.979070173929955</v>
+        <v>5.879600017592527</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.306948760080229</v>
+        <v>-2.320531587469953</v>
       </c>
       <c r="G32" t="n">
-        <v>1.951791783862763</v>
+        <v>1.930168471636406</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.628652139486083</v>
       </c>
       <c r="E33" t="n">
-        <v>5.789150038360733</v>
+        <v>5.696009190497395</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.351310861274399</v>
+        <v>-2.369728637917167</v>
       </c>
       <c r="G33" t="n">
-        <v>1.933275453973859</v>
+        <v>1.91944295836059</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5594866831577181</v>
       </c>
       <c r="E34" t="n">
-        <v>5.534879743232802</v>
+        <v>5.444939320784735</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.440627843187648</v>
+        <v>-2.45873170949087</v>
       </c>
       <c r="G34" t="n">
-        <v>1.848918255425428</v>
+        <v>1.835225924428886</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4917276519406559</v>
       </c>
       <c r="E35" t="n">
-        <v>5.33752212268849</v>
+        <v>5.251004052965514</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.444969296185965</v>
+        <v>-2.464742727481141</v>
       </c>
       <c r="G35" t="n">
-        <v>1.79622073968026</v>
+        <v>1.785299579960263</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.427651665391605</v>
       </c>
       <c r="E36" t="n">
-        <v>5.154585397138085</v>
+        <v>5.061095597781019</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.422814526454516</v>
+        <v>-2.437506260369285</v>
       </c>
       <c r="G36" t="n">
-        <v>1.706160593288738</v>
+        <v>1.694389685579833</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3679757857530416</v>
       </c>
       <c r="E37" t="n">
-        <v>4.79991927518309</v>
+        <v>4.715986950629112</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.35698314810758</v>
+        <v>-2.374800114960939</v>
       </c>
       <c r="G37" t="n">
-        <v>1.612764237009491</v>
+        <v>1.602138007003857</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3147191755396448</v>
       </c>
       <c r="E38" t="n">
-        <v>4.604601341821779</v>
+        <v>4.528407272149617</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.240276394032929</v>
+        <v>-2.253757018056289</v>
       </c>
       <c r="G38" t="n">
-        <v>1.52885819332115</v>
+        <v>1.513299920864427</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.2682965519244394</v>
       </c>
       <c r="E39" t="n">
-        <v>4.267952213308596</v>
+        <v>4.187826234127618</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.215100054777345</v>
+        <v>-2.22675707873516</v>
       </c>
       <c r="G39" t="n">
-        <v>1.415689865794816</v>
+        <v>1.404568679486365</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2288417251821323</v>
       </c>
       <c r="E40" t="n">
-        <v>3.942727961106774</v>
+        <v>3.855390804404798</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.150542568389726</v>
+        <v>-2.156014098610406</v>
       </c>
       <c r="G40" t="n">
-        <v>1.313216390534389</v>
+        <v>1.297662498221939</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1956701385444494</v>
       </c>
       <c r="E41" t="n">
-        <v>3.661529999038213</v>
+        <v>3.580960165237599</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.050628557432662</v>
+        <v>-2.057230164875706</v>
       </c>
       <c r="G41" t="n">
-        <v>1.19664761100433</v>
+        <v>1.180191408971698</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1676793027835681</v>
       </c>
       <c r="E42" t="n">
-        <v>3.356625236117568</v>
+        <v>3.264683087736866</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.947795910341871</v>
+        <v>-1.95215634396537</v>
       </c>
       <c r="G42" t="n">
-        <v>1.099506231371902</v>
+        <v>1.08197397389627</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1442033326950196</v>
       </c>
       <c r="E43" t="n">
-        <v>3.11977769485845</v>
+        <v>3.036480491224018</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.913243142246471</v>
+        <v>-1.920800351165015</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9959304198028384</v>
+        <v>0.9745757564252078</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1237535263891827</v>
       </c>
       <c r="E44" t="n">
-        <v>2.861774056762064</v>
+        <v>2.782033530277086</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.868746716627938</v>
+        <v>-1.879474419975889</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8715460028421445</v>
+        <v>0.8512703150036954</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1045145762986897</v>
       </c>
       <c r="E45" t="n">
-        <v>2.597695158559408</v>
+        <v>2.518424767559702</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.734934769144246</v>
+        <v>-1.741456803966336</v>
       </c>
       <c r="G45" t="n">
-        <v>0.760827636012356</v>
+        <v>0.7437538336372697</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.08545953025122195</v>
       </c>
       <c r="E46" t="n">
-        <v>2.387511015536464</v>
+        <v>2.311165100862849</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.66964141851881</v>
+        <v>-1.671227030745536</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7375822103569987</v>
+        <v>0.7216209646271847</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.0654933928970609</v>
       </c>
       <c r="E47" t="n">
-        <v>2.073596295846822</v>
+        <v>1.999421472684387</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.621427710460823</v>
+        <v>-1.624950806504185</v>
       </c>
       <c r="G47" t="n">
-        <v>0.623572895130302</v>
+        <v>0.6074627244952154</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.04470638237479824</v>
       </c>
       <c r="E48" t="n">
-        <v>1.918876459701318</v>
+        <v>1.850535988710154</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.560499903627202</v>
+        <v>-1.558303991298476</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5528072842601391</v>
+        <v>0.5361043341001437</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.02332010404846488</v>
       </c>
       <c r="E49" t="n">
-        <v>1.726110690402915</v>
+        <v>1.658189253213842</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.537029630565845</v>
+        <v>-1.539132099816754</v>
       </c>
       <c r="G49" t="n">
-        <v>0.479232540863068</v>
+        <v>0.4607366516474366</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.002004860132503709</v>
       </c>
       <c r="E50" t="n">
-        <v>1.621112791993307</v>
+        <v>1.551884611762871</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.424610307710148</v>
+        <v>-1.421788034750421</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4243989747609009</v>
+        <v>0.4065090055029966</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01851538007109036</v>
       </c>
       <c r="E51" t="n">
-        <v>1.467796062063166</v>
+        <v>1.402794721055911</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.367325320863345</v>
+        <v>-1.364920621657619</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3515965968039205</v>
+        <v>0.3360646052128337</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.03744625411267027</v>
       </c>
       <c r="E52" t="n">
-        <v>1.372057788646101</v>
+        <v>1.311081800225481</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.312650900003087</v>
+        <v>-1.307145058652271</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2837642225483932</v>
+        <v>0.2689505746180336</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.05423038144800067</v>
       </c>
       <c r="E53" t="n">
-        <v>1.157911075104431</v>
+        <v>1.09196800307854</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.26157695773501</v>
+        <v>-1.254907458055739</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2425587453267679</v>
+        <v>0.2289788380332261</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06847230957137475</v>
       </c>
       <c r="E54" t="n">
-        <v>1.212299326538871</v>
+        <v>1.156740116535522</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.252929092892558</v>
+        <v>-1.248245258616923</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1600806286713355</v>
+        <v>0.1434565211082491</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.08013337622734677</v>
       </c>
       <c r="E55" t="n">
-        <v>1.034377866180737</v>
+        <v>0.9750166909486622</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.223154332174657</v>
+        <v>-1.219929085941839</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1094520010709855</v>
+        <v>0.09523989295408021</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08903181721561615</v>
       </c>
       <c r="E56" t="n">
-        <v>1.01969708262665</v>
+        <v>0.9561017679309399</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.187174367070394</v>
+        <v>-1.186146493214394</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07260184730454083</v>
+        <v>0.05842332029372645</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.09579513026236575</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9206678608126767</v>
+        <v>0.8570667059246029</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.158025966983492</v>
+        <v>-1.154916064549857</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04458352444000289</v>
+        <v>0.02950268770900695</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1006667434647518</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8614877315438745</v>
+        <v>0.802660933913072</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.14176249129886</v>
+        <v>-1.142331910054315</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.05139127676778951</v>
+        <v>-0.06542233892142212</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1044145197683203</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7481806994489049</v>
+        <v>0.6808476616404684</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.072055415294606</v>
+        <v>-1.076107048746878</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1164948211414084</v>
+        <v>-0.1293052830910413</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.107391791221862</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7628308219930827</v>
+        <v>0.6959474789966462</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.020140485326166</v>
+        <v>-1.023857767765619</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1392540507824932</v>
+        <v>-0.1545845557370345</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1099395634449958</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6374462720901164</v>
+        <v>0.5672281792540443</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.018392807761348</v>
+        <v>-1.024552750656892</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1825765977359361</v>
+        <v>-0.1988488337091135</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1121836344675734</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5589599269152284</v>
+        <v>0.4829250024849761</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.014974835180531</v>
+        <v>-1.018486250839166</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2529479956215536</v>
+        <v>-0.2684507862508221</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1140801716151709</v>
       </c>
       <c r="E63" t="n">
-        <v>0.502739315126698</v>
+        <v>0.4301895254894448</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.085487857730966</v>
+        <v>-1.094252526420691</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2791135174587284</v>
+        <v>-0.2980766220634505</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1157850258356775</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4286491747535361</v>
+        <v>0.3514097106482841</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.039258355028524</v>
+        <v>-1.045086867007432</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3337747978861682</v>
+        <v>-0.3539103211078901</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1168361872633264</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3603452049646454</v>
+        <v>0.2808076251643031</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9856877305249931</v>
+        <v>-0.9868017472183566</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3649482846751599</v>
+        <v>-0.3821345107532462</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1174211558914152</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3057014451142964</v>
+        <v>0.2248775629458636</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.031309853221617</v>
+        <v>-1.036409801203161</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3862065848787905</v>
+        <v>-0.4050222246263309</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1174114213263154</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3315194755058349</v>
+        <v>0.2574979573929457</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.024049034065528</v>
+        <v>-1.026078500911891</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4087395070657845</v>
+        <v>-0.4266294763236887</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.116754314362886</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2440114931772221</v>
+        <v>0.1679955493721516</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.061008691438791</v>
+        <v>-1.069530992145425</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4214974072841447</v>
+        <v>-0.4394881198603217</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1151415039274581</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1891881474116913</v>
+        <v>0.1209586400754369</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.097784382752599</v>
+        <v>-1.106008833648688</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4356686340545045</v>
+        <v>-0.4538126516802269</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1122128301838499</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1377521132170688</v>
+        <v>0.07062932233372318</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.177740996355032</v>
+        <v>-1.185572694314667</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4701286890961316</v>
+        <v>-0.4901722292881263</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1075845107205111</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07790620201881213</v>
+        <v>0.01067828767292109</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.316791596388904</v>
+        <v>-1.331942515428264</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5413907163172034</v>
+        <v>-0.5655793330392878</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1010715692553667</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0245940060273719</v>
+        <v>-0.03840706909533845</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.352405089422349</v>
+        <v>-1.368626223712345</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5311528591037517</v>
+        <v>-0.551120476795019</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.09239226396521243</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01363634510510212</v>
+        <v>-0.04681840614706347</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.362197631968074</v>
+        <v>-1.379249533621797</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5550567664481089</v>
+        <v>-0.5758011297237396</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.08106669314183927</v>
       </c>
       <c r="E74" t="n">
-        <v>0.06038416487981683</v>
+        <v>-0.002187656104166362</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.406066236907517</v>
+        <v>-1.421598228498604</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5638958975904701</v>
+        <v>-0.5842329074487373</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.0667849573415107</v>
       </c>
       <c r="E75" t="n">
-        <v>0.09446168732162587</v>
+        <v>0.04119913296527653</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.474697257468771</v>
+        <v>-1.489754733430312</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5354848217894778</v>
+        <v>-0.5611670677085617</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.04932140362316895</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1426082331674311</v>
+        <v>0.0886258751022638</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.39874409573161</v>
+        <v>-1.408395013612516</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.539206484373204</v>
+        <v>-0.5636418492226519</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.02871296790290693</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2690410975996699</v>
+        <v>0.2153142479504116</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.390402840988248</v>
+        <v>-1.402134327398699</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4554274648687719</v>
+        <v>-0.4746708987069486</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.005311411568190201</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3877079662363653</v>
+        <v>0.3462645011759219</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.345440660028715</v>
+        <v>-1.35605374960153</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4775501135422205</v>
+        <v>-0.49630005112567</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.02021590833214413</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4680850736889801</v>
+        <v>0.4286214338398089</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.310269561566815</v>
+        <v>-1.318635637127722</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4219266614228718</v>
+        <v>-0.4399962165959579</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.04753066468710954</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5946639429303098</v>
+        <v>0.5635123568626818</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.324763458965266</v>
+        <v>-1.3339763624189</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.388260872542699</v>
+        <v>-0.4039987309146039</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.07595171833541801</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6414643244362972</v>
+        <v>0.6005318762076718</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.274847334833279</v>
+        <v>-1.279307781751005</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2987044427425413</v>
+        <v>-0.3132100205257192</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1047962680040954</v>
       </c>
       <c r="E82" t="n">
-        <v>0.748049295120723</v>
+        <v>0.7115466327999147</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.207152205098297</v>
+        <v>-1.212174770531023</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2766124550790018</v>
+        <v>-0.2887615152434531</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1331362191009283</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8836454213715048</v>
+        <v>0.8502059399454229</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.171259842879489</v>
+        <v>-1.178898814491123</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2124083003293827</v>
+        <v>-0.2241850482306522</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1599033184663629</v>
       </c>
       <c r="E84" t="n">
-        <v>1.087129403705268</v>
+        <v>1.065506091478911</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.109361104065415</v>
+        <v>-1.11729062524714</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1822407866750271</v>
+        <v>-0.1940248348167512</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1833927058342153</v>
       </c>
       <c r="E85" t="n">
-        <v>1.169515537330974</v>
+        <v>1.15077436003607</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9925105352538095</v>
+        <v>-0.9958029436988086</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1301886121860411</v>
+        <v>-0.1418076748934925</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2018544720351774</v>
       </c>
       <c r="E86" t="n">
-        <v>1.360491287669922</v>
+        <v>1.350122026128289</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9055938724020147</v>
+        <v>-0.9103653095631044</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0586900571742421</v>
+        <v>-0.06800954413851232</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2131674156326946</v>
       </c>
       <c r="E87" t="n">
-        <v>1.458553957647714</v>
+        <v>1.454252655971897</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8157877743783115</v>
+        <v>-0.822752203771946</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.008308177701255628</v>
+        <v>-0.01513682262243561</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.215144543845599</v>
       </c>
       <c r="E88" t="n">
-        <v>1.556988939888688</v>
+        <v>1.561392444930868</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6836709427281652</v>
+        <v>-0.6914661394855267</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02208418335909985</v>
+        <v>0.01407143943619291</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2058799895381757</v>
       </c>
       <c r="E89" t="n">
-        <v>1.643648634276483</v>
+        <v>1.658146911819206</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5820807965627379</v>
+        <v>-0.5939728882631893</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07633957041726709</v>
+        <v>0.07278435331590441</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1830891593572464</v>
       </c>
       <c r="E90" t="n">
-        <v>1.678409459224837</v>
+        <v>1.696861546997741</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4861497967976728</v>
+        <v>-0.4987821328802148</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08313463423235619</v>
+        <v>0.07648119508208524</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1458038346524337</v>
       </c>
       <c r="E91" t="n">
-        <v>1.681342695839472</v>
+        <v>1.700847478285922</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3063959760854483</v>
+        <v>-0.3167608574828092</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1153213943964384</v>
+        <v>0.1135591163507117</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.09466913766635503</v>
       </c>
       <c r="E92" t="n">
-        <v>1.679126342837473</v>
+        <v>1.694795578949105</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1617183507092144</v>
+        <v>-0.1745069119374837</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1352452106449785</v>
+        <v>0.1329748358636155</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03265078523053832</v>
       </c>
       <c r="E93" t="n">
-        <v>1.693725363698469</v>
+        <v>1.713192184894555</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003145899571923115</v>
+        <v>-0.003060764862529764</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1175362873503469</v>
+        <v>0.1151710094430749</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03447899732544062</v>
       </c>
       <c r="E94" t="n">
-        <v>1.640617574439756</v>
+        <v>1.660555991169205</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1023722278781692</v>
+        <v>0.09131382363762672</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04982363703827422</v>
+        <v>0.05013900742591049</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1000650873496859</v>
       </c>
       <c r="E95" t="n">
-        <v>1.571571900220684</v>
+        <v>1.594126723129041</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2131124954293213</v>
+        <v>0.2071306784008684</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01915386684064609</v>
+        <v>0.02258643990237244</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1571912708069971</v>
       </c>
       <c r="E96" t="n">
-        <v>1.460231552904168</v>
+        <v>1.485126832902252</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2567124515200369</v>
+        <v>0.2490705598122207</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.004662437618256607</v>
+        <v>0.001455163882650842</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2009117182337022</v>
       </c>
       <c r="E97" t="n">
-        <v>1.317618435528479</v>
+        <v>1.338133571253837</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3195178801985654</v>
+        <v>0.3133185160045671</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03748431870188416</v>
+        <v>-0.03669735278088437</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2294036424192153</v>
       </c>
       <c r="E98" t="n">
-        <v>1.211788309707053</v>
+        <v>1.233960600015593</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3470981886358308</v>
+        <v>0.3456936223723766</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04859236457751754</v>
+        <v>-0.04437866578715503</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.244807428721263</v>
       </c>
       <c r="E99" t="n">
-        <v>1.054503169065823</v>
+        <v>1.071660194182091</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3516272578138295</v>
+        <v>0.3500241250100118</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09710100234986815</v>
+        <v>-0.09527740228432319</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2518133236739638</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9662169811047554</v>
+        <v>0.985765564993932</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3139813778378396</v>
+        <v>0.3141536635125668</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1425975609106741</v>
+        <v>-0.1462345407051277</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2552038214974476</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8411726224069708</v>
+        <v>0.8598203566240568</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3494474060141028</v>
+        <v>0.3537487076899199</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09628337541895927</v>
+        <v>-0.09288584351141474</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2622086839241082</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7013335964040084</v>
+        <v>0.7146521550892775</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2872245365238468</v>
+        <v>0.2884319962950283</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.196363831858387</v>
+        <v>-0.1982399936552046</v>
       </c>
     </row>
   </sheetData>
